--- a/Project/Excel Work Sample/Statistical Data Analysis.xlsx
+++ b/Project/Excel Work Sample/Statistical Data Analysis.xlsx
@@ -1302,7 +1302,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1546,7 +1545,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1650,7 +1648,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3235,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
